--- a/biology/Botanique/Guillaume_Nissole/Guillaume_Nissole.xlsx
+++ b/biology/Botanique/Guillaume_Nissole/Guillaume_Nissole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guillaume Nissole est un médecin et un botaniste français, né le 16 avril 1647 à Montpellier et mort vers 1734.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est Jean Nissole (1602-1689), "démonstrateur royal" d’anatomie à la faculté de médecine de Montpellier. Son frère est le médecin Pierre Nissole (1656-1726).
 Guillaume Nissole fait des études de médecine puis à Paris avant de revenir s’installer à Montpellier. Déçu de n’avoir obtenu une chaire de médecine en 1673, il se décide de se consacrer à l’histoire naturelle, il se passionne tant pour cette discipline qu’il finit par abandonner l’exercice de la médecine. Il décrit ainsi des plantes dans les mémoires de l’Académie des sciences de Paris mais surtout dans les mémoires de l’Académie des sciences de Montpellier.
